--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amimoto.CDL_WJP\Documents\MATLAB\Jenkins_Sample_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94BED85-F09A-46AC-BAAB-BC42B219B475}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E446E3-A72E-431C-81C2-A009298694EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="データ" sheetId="2" r:id="rId1"/>
@@ -374,7 +374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F4E217D-C66A-4A02-A2F7-712ACCBC44F7}">
   <dimension ref="E1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -609,8 +609,8 @@
         <v>19</v>
       </c>
       <c r="C2">
-        <f>B2+1</f>
-        <v>20</v>
+        <f>B2+2</f>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -621,8 +621,8 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C32" si="0">B3+1</f>
-        <v>19</v>
+        <f t="shared" ref="C3:C32" si="0">B3+2</f>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -634,7 +634,7 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -646,7 +646,7 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -658,7 +658,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -670,7 +670,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -682,7 +682,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -694,7 +694,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -706,7 +706,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -718,7 +718,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -730,7 +730,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -742,7 +742,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -754,7 +754,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -766,7 +766,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -778,7 +778,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -790,7 +790,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -802,7 +802,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -814,7 +814,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -826,7 +826,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -838,7 +838,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -850,7 +850,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -862,7 +862,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -874,7 +874,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -886,7 +886,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -898,7 +898,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -910,7 +910,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -922,7 +922,7 @@
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -934,7 +934,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -946,7 +946,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -958,7 +958,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -970,7 +970,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
